--- a/first-website-on-macImageLog.xlsx
+++ b/first-website-on-macImageLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xueli/Desktop/HTML/first-website-on-Mac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386578D6-D930-7742-88F7-5C1B81574F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E432B871-2FDE-394C-9533-3D978BA76462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16940" yWindow="5340" windowWidth="17460" windowHeight="17440" xr2:uid="{4D29B3C3-5409-5842-B8A3-F9AB6DF89093}"/>
   </bookViews>
